--- a/dataservices/data_services.xlsx
+++ b/dataservices/data_services.xlsx
@@ -8,8 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="create" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="update" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="data_services" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -47,6 +46,9 @@
     <t xml:space="preserve">dsMonthsOfData</t>
   </si>
   <si>
+    <t xml:space="preserve">mstrCubeID</t>
+  </si>
+  <si>
     <t xml:space="preserve">ChicagoCrime</t>
   </si>
   <si>
@@ -111,27 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">crash_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mstrCubeID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1F03B66A11E9588889C70080EF05336A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2161CA4611E9588845530080EF55D269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3B6803A611E9588842920080EFF51166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4022C6D811E9588842720080EFE5F166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425C6BFC11E9588846330080EFC5B36A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4864228811E9588826E70080EF15D446</t>
   </si>
 </sst>
 </file>
@@ -310,235 +291,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="9" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="jmaddocks@microstrategy.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="jmaddocks@microstrategy.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="jmaddocks@microstrategy.com"/>
-    <hyperlink ref="D5" r:id="rId4" display="jmaddocks@microstrategy.com"/>
-    <hyperlink ref="D6" r:id="rId5" display="jmaddocks@microstrategy.com"/>
-    <hyperlink ref="D7" r:id="rId6" display="jmaddocks@microstrategy.com"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -582,181 +337,164 @@
         <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/dataservices/data_services.xlsx
+++ b/dataservices/data_services.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">1CF4D41E11E9595301AB0080EF75F133</t>
+    <t xml:space="preserve">D2FF161411E9599BFEF90080EFD504D1</t>
   </si>
   <si>
     <t xml:space="preserve">ChicagoBeachWeather</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">measurement_timestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">1F03549211E9595333910080EF4510DB</t>
+    <t xml:space="preserve">D50E086611E9599BBBE50080EF0564D1</t>
   </si>
   <si>
     <t xml:space="preserve">ChicagoDivvyTrips</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">start_time</t>
   </si>
   <si>
-    <t xml:space="preserve">36F4446C11E9595334510080EFA5D0DC</t>
+    <t xml:space="preserve">EDD7911411E9599BB8C30080EF7542CE</t>
   </si>
   <si>
     <t xml:space="preserve">ChicagoTowedVehicles</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">tow_date</t>
   </si>
   <si>
-    <t xml:space="preserve">3A55126C11E9595337930080EF4512DF</t>
+    <t xml:space="preserve">F13B175E11E9599BBAA40080EF6523D0</t>
   </si>
   <si>
     <t xml:space="preserve">ChicagoRedLightViolations</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">violation_date</t>
   </si>
   <si>
-    <t xml:space="preserve">3C0E751211E9595336F30080EFF572DE</t>
+    <t xml:space="preserve">F321380A11E9599BBA040080EF1583D0</t>
   </si>
   <si>
     <t xml:space="preserve">ChicagoTrafficCrashes</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">crash_date</t>
   </si>
   <si>
-    <t xml:space="preserve">4265BEC011E959531DA30080EF953134</t>
+    <t xml:space="preserve">F94D7E7811E9599B1BE60080EFF5C4B9</t>
   </si>
 </sst>
 </file>
@@ -253,12 +253,14 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>

--- a/dataservices/data_services.xlsx
+++ b/dataservices/data_services.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -73,9 +73,6 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">D2FF161411E9599BFEF90080EFD504D1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ChicagoBeachWeather</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t xml:space="preserve">measurement_timestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">D50E086611E9599BBBE50080EF0564D1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ChicagoDivvyTrips</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t xml:space="preserve">start_time</t>
   </si>
   <si>
-    <t xml:space="preserve">EDD7911411E9599BB8C30080EF7542CE</t>
-  </si>
-  <si>
     <t xml:space="preserve">ChicagoTowedVehicles</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t xml:space="preserve">tow_date</t>
   </si>
   <si>
-    <t xml:space="preserve">F13B175E11E9599BBAA40080EF6523D0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ChicagoRedLightViolations</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t xml:space="preserve">violation_date</t>
   </si>
   <si>
-    <t xml:space="preserve">F321380A11E9599BBA040080EF1583D0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ChicagoTrafficCrashes</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">crash_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F94D7E7811E9599B1BE60080EFF5C4B9</t>
   </si>
 </sst>
 </file>
@@ -253,7 +235,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,40 +306,34 @@
       <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,31 +341,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -397,7 +370,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -412,16 +385,13 @@
         <v>14</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +399,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -444,16 +414,13 @@
         <v>14</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,7 +428,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -476,16 +443,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/dataservices/data_services.xlsx
+++ b/dataservices/data_services.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Unnamed: 0.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -118,22 +121,22 @@
     <t>crash_date</t>
   </si>
   <si>
-    <t>1389C34811E95A0DEE7F0080EFF5C9DB</t>
-  </si>
-  <si>
-    <t>15362A4C11E95A0DA8EA0080EFC56ADC</t>
-  </si>
-  <si>
-    <t>24223C5811E95A0DAB0B0080EFD58BDF</t>
-  </si>
-  <si>
-    <t>2769660211E95A0DA8EA0080EFC56ADC</t>
-  </si>
-  <si>
-    <t>29CEC79811E95A0DABCC0080EF354BDF</t>
-  </si>
-  <si>
-    <t>2DC09ED011E95A0D1AFD0080EFD50CAB</t>
+    <t>DCA0719E11E95A5A23890080EFD54B5D</t>
+  </si>
+  <si>
+    <t>DF2DE95A11E95A5A5F2B0080EFC5ABDE</t>
+  </si>
+  <si>
+    <t>EEB4067A11E95A5A5EEB0080EFA56ADD</t>
+  </si>
+  <si>
+    <t>F2CD531A11E95A5A5E6B0080EF65EADD</t>
+  </si>
+  <si>
+    <t>F59FECA611E95A5A610C0080EFB58BE0</t>
+  </si>
+  <si>
+    <t>B6F0F35C11E95A5923890080EF758C60</t>
   </si>
 </sst>
 </file>
@@ -491,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +537,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -567,16 +573,19 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -587,13 +596,13 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -605,19 +614,22 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,13 +640,13 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -646,19 +658,22 @@
         <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="M4" t="s">
-        <v>36</v>
+      <c r="N4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -669,13 +684,13 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -687,19 +702,22 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -710,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -728,19 +746,22 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -751,10 +772,10 @@
         <v>5</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -769,16 +790,19 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
